--- a/excels/equipos_nba.xlsx
+++ b/excels/equipos_nba.xlsx
@@ -488,42 +488,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>64 - 18</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Eastern</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>120.6</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>26.9</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>109.2</t>
         </is>
       </c>
     </row>
@@ -535,42 +535,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>32 - 50</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>11th</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Eastern</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>110.4</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>25.6</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>113.3</t>
         </is>
       </c>
     </row>
@@ -587,12 +587,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>26 - 17</t>
+          <t>50 - 32</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -602,22 +602,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>115.2</t>
+          <t>112.8</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>24.4</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>110.6</t>
+          <t>108.2</t>
         </is>
       </c>
     </row>
@@ -634,12 +634,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>29 - 13</t>
+          <t>47 - 35</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>7th</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -649,17 +649,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>119.8</t>
+          <t>114.6</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>25.4</t>
+          <t>24.9</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16 - 28</t>
+          <t>25 - 57</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -696,22 +696,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>114.3</t>
+          <t>112.4</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>29.6</t>
+          <t>28.5</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>116.4</t>
+          <t>118.8</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21 - 24</t>
+          <t>39 - 43</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -743,22 +743,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>110.6</t>
+          <t>112.3</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>24.4</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>112.1</t>
+          <t>113.7</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>26 - 15</t>
+          <t>48 - 34</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -790,22 +790,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>114.0</t>
+          <t>112.6</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>43.3</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>26.9</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>109.7</t>
+          <t>110.2</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4 - 39</t>
+          <t>14 - 68</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>112.4</t>
+          <t>109.9</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -847,12 +847,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>26.4</t>
+          <t>25.5</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>123.0</t>
+          <t>119.0</t>
         </is>
       </c>
     </row>
@@ -869,12 +869,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>24 - 19</t>
+          <t>47 - 35</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7th</t>
+          <t>6th</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -884,22 +884,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>125.0</t>
+          <t>123.3</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>40.5</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>31.1</t>
+          <t>30.8</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>123.1</t>
+          <t>120.2</t>
         </is>
       </c>
     </row>
@@ -911,42 +911,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Milwaukee Bucks</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>49 - 33</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Eastern</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>119.0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>26.5</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>116.4</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>18 - 25</t>
+          <t>36 - 46</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -978,22 +978,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>119.7</t>
+          <t>118.3</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>44.9</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>25.4</t>
+          <t>26.6</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>122.4</t>
+          <t>120.5</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10 - 31</t>
+          <t>21 - 61</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1025,22 +1025,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>108.8</t>
+          <t>106.6</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>41.3</t>
+          <t>40.3</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>24.9</t>
+          <t>24.8</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>119.9</t>
+          <t>116.8</t>
         </is>
       </c>
     </row>
@@ -1057,12 +1057,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>24 - 19</t>
+          <t>46 - 36</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6th</t>
+          <t>8th</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1072,22 +1072,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>110.9</t>
+          <t>110.1</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>41.6</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>25.7</t>
+          <t>25.8</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>110.7</t>
+          <t>108.4</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>23 - 21</t>
+          <t>47 - 35</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8th</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1119,22 +1119,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>111.4</t>
+          <t>110.5</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>24.5</t>
+          <t>24.7</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>111.2</t>
+          <t>108.4</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>7 - 35</t>
+          <t>15 - 67</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1166,22 +1166,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>113.7</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>41.1</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>27.8</t>
+          <t>27.9</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>124.9</t>
+          <t>123.0</t>
         </is>
       </c>
     </row>
@@ -1198,12 +1198,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>30 - 14</t>
+          <t>57 - 25</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1213,22 +1213,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>115.9</t>
+          <t>114.9</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>29.3</t>
+          <t>29.5</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>110.9</t>
+          <t>109.6</t>
         </is>
       </c>
     </row>
@@ -1245,12 +1245,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>30 - 13</t>
+          <t>56 - 26</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1260,22 +1260,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>113.4</t>
+          <t>113.0</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>26.4</t>
+          <t>26.6</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>107.8</t>
+          <t>106.5</t>
         </is>
       </c>
     </row>
@@ -1287,42 +1287,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>57 - 25</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Western</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>120.1</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>27.1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>112.7</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12 - 30</t>
+          <t>21 - 61</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>14th</t>
+          <t>15th</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1354,22 +1354,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>106.4</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>41.4</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>22.1</t>
+          <t>23.1</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>117.1</t>
+          <t>115.4</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1386,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>22 - 22</t>
+          <t>31 - 51</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10th</t>
+          <t>12th</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>117.3</t>
+          <t>115.7</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>28.1</t>
+          <t>27.2</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>118.7</t>
+          <t>120.5</t>
         </is>
       </c>
     </row>
@@ -1433,12 +1433,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18 - 22</t>
+          <t>46 - 36</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12th</t>
+          <t>10th</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1448,22 +1448,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>117.2</t>
+          <t>117.8</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>28.2</t>
+          <t>29.3</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>118.2</t>
+          <t>115.2</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>27 - 14</t>
+          <t>51 - 31</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1495,22 +1495,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>117.8</t>
+          <t>115.6</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>25.8</t>
+          <t>25.6</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>112.0</t>
+          <t>112.3</t>
         </is>
       </c>
     </row>
@@ -1527,12 +1527,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>22 - 22</t>
+          <t>47 - 35</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>9th</t>
+          <t>8th</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1542,22 +1542,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>114.8</t>
+          <t>118.0</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>43.2</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>27.9</t>
+          <t>28.5</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>115.6</t>
+          <t>117.4</t>
         </is>
       </c>
     </row>
@@ -1574,12 +1574,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>25 - 18</t>
+          <t>49 - 33</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t>6th</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1589,22 +1589,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>116.1</t>
+          <t>116.2</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>26.3</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>114.2</t>
+          <t>113.2</t>
         </is>
       </c>
     </row>
@@ -1621,12 +1621,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>24 - 18</t>
+          <t>46 - 36</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7th</t>
+          <t>9th</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1636,22 +1636,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>118.3</t>
+          <t>116.6</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>28.7</t>
+          <t>28.3</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>117.7</t>
+          <t>114.8</t>
         </is>
       </c>
     </row>
@@ -1663,42 +1663,42 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>50 - 32</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Western</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>117.9</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>25.7</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>115.6</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>20 - 22</t>
+          <t>41 - 41</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1730,12 +1730,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>112.5</t>
+          <t>114.3</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>112.1</t>
+          <t>113.2</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16 - 27</t>
+          <t>27 - 55</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1777,22 +1777,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>107.8</t>
+          <t>105.8</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>42.6</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>24.8</t>
+          <t>24.7</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>113.3</t>
+          <t>112.8</t>
         </is>
       </c>
     </row>
@@ -1804,42 +1804,42 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>49 - 33</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>7th</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Western</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>115.1</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>110.7</t>
         </is>
       </c>
     </row>
@@ -1851,42 +1851,42 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>22 - 60</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>14th</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Western</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>112.1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>29.9</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>118.6</t>
         </is>
       </c>
     </row>
